--- a/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
+++ b/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2A28E-968B-4459-8A14-ED87372F81A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C301179-91C9-443B-B27A-09AEAF5E3CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="2940" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Regressao Robust" sheetId="13" r:id="rId1"/>
@@ -715,18 +715,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -748,12 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -772,13 +754,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D8B2B8-F1A2-4C2B-B6F9-25C48E0508A1}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,41 +1802,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32">
+      <c r="G3" s="31"/>
+      <c r="H3" s="26">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="26">
         <v>0.05</v>
       </c>
       <c r="J3">
@@ -1847,13 +1847,13 @@
       <c r="A4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>0.50235810000000003</v>
       </c>
       <c r="C4" s="3">
         <v>0.293931</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="22">
         <v>1.71</v>
       </c>
       <c r="E4" s="5">
@@ -1888,7 +1888,7 @@
       <c r="C5" s="3">
         <v>0.30251230000000001</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="22">
         <v>-0.84</v>
       </c>
       <c r="E5" s="5">
@@ -1923,7 +1923,7 @@
       <c r="C6" s="3">
         <v>0.95150500000000005</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="22">
         <v>0.33</v>
       </c>
       <c r="E6" s="5">
@@ -1958,7 +1958,7 @@
       <c r="C7" s="3">
         <v>0.34210429999999997</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <v>0.51</v>
       </c>
       <c r="E7" s="5">
@@ -1993,7 +1993,7 @@
       <c r="C8" s="3">
         <v>0.1190176</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="22">
         <v>1.1399999999999999</v>
       </c>
       <c r="E8" s="5">
@@ -2028,7 +2028,7 @@
       <c r="C9" s="3">
         <v>1.0185299999999999</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="22">
         <v>-1.22</v>
       </c>
       <c r="E9" s="5">
@@ -2063,7 +2063,7 @@
       <c r="C10" s="3">
         <v>0.60079680000000002</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="22">
         <v>-0.06</v>
       </c>
       <c r="E10" s="5">
@@ -2098,7 +2098,7 @@
       <c r="C11" s="3">
         <v>0.18228800000000001</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <v>-1.22</v>
       </c>
       <c r="E11" s="5">
@@ -2133,7 +2133,7 @@
       <c r="C12" s="3">
         <v>18.966200000000001</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>0.01</v>
       </c>
       <c r="E12" s="5">
@@ -2165,8 +2165,8 @@
       <c r="B13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2179,7 +2179,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2192,8 +2192,8 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -2204,8 +2204,8 @@
       <c r="B16" s="3">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2217,8 +2217,8 @@
       <c r="B17" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2231,20 +2231,20 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="23" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="3">
         <v>-0.46139999999999998</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -2257,8 +2257,8 @@
         <v>0.75949480999999996</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
@@ -2346,37 +2346,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2388,10 +2388,10 @@
       <c r="C4" s="3">
         <v>0.293931</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>1.71</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="F4" s="5">
@@ -2411,10 +2411,10 @@
       <c r="C5" s="3">
         <v>0.30251230000000001</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>-0.84</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>0.40500000000000003</v>
       </c>
       <c r="F5" s="7">
@@ -2434,10 +2434,10 @@
       <c r="C6" s="3">
         <v>0.95150500000000005</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>0.33</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>0.746</v>
       </c>
       <c r="F6" s="7">
@@ -2457,10 +2457,10 @@
       <c r="C7" s="3">
         <v>0.34210429999999997</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>0.51</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>0.61399999999999999</v>
       </c>
       <c r="F7" s="5">
@@ -2480,10 +2480,10 @@
       <c r="C8" s="3">
         <v>0.1190176</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>0.25900000000000001</v>
       </c>
       <c r="F8" s="7">
@@ -2503,10 +2503,10 @@
       <c r="C9" s="3">
         <v>1.0185299999999999</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>-1.22</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>0.23</v>
       </c>
       <c r="F9" s="7">
@@ -2526,10 +2526,10 @@
       <c r="C10" s="3">
         <v>0.60079680000000002</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>-0.06</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>0.95099999999999996</v>
       </c>
       <c r="F10" s="5">
@@ -2549,10 +2549,10 @@
       <c r="C11" s="3">
         <v>0.18228800000000001</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>-1.22</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>0.23</v>
       </c>
       <c r="F11" s="7">
@@ -2572,10 +2572,10 @@
       <c r="C12" s="3">
         <v>18.966200000000001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>0.01</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>0.99299999999999999</v>
       </c>
       <c r="F12" s="5">
@@ -2592,8 +2592,8 @@
       <c r="B13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2606,7 +2606,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2619,11 +2619,11 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -2632,8 +2632,8 @@
       <c r="B16" s="3">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2646,8 +2646,8 @@
       <c r="B17" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2661,21 +2661,21 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="23" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="3">
         <v>-0.46139999999999998</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -2688,11 +2688,11 @@
         <v>0.75949480999999996</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2724,41 +2724,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32">
+      <c r="G3" s="32"/>
+      <c r="H3" s="26">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="26">
         <v>0.05</v>
       </c>
       <c r="J3">
@@ -2769,13 +2769,13 @@
       <c r="A4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>0.50235810000000003</v>
       </c>
       <c r="C4" s="3">
         <v>0.293931</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="22">
         <v>1.71</v>
       </c>
       <c r="E4" s="5">
@@ -2810,7 +2810,7 @@
       <c r="C5" s="3">
         <v>0.30251230000000001</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="22">
         <v>-0.84</v>
       </c>
       <c r="E5" s="5">
@@ -2845,7 +2845,7 @@
       <c r="C6" s="3">
         <v>0.95150500000000005</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="22">
         <v>0.33</v>
       </c>
       <c r="E6" s="5">
@@ -2880,7 +2880,7 @@
       <c r="C7" s="3">
         <v>0.34210429999999997</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <v>0.51</v>
       </c>
       <c r="E7" s="5">
@@ -2915,7 +2915,7 @@
       <c r="C8" s="3">
         <v>0.1190176</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="22">
         <v>1.1399999999999999</v>
       </c>
       <c r="E8" s="3">
@@ -2950,7 +2950,7 @@
       <c r="C9" s="3">
         <v>1.0185299999999999</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="22">
         <v>-1.22</v>
       </c>
       <c r="E9" s="5">
@@ -2985,7 +2985,7 @@
       <c r="C10" s="3">
         <v>0.60079680000000002</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="22">
         <v>-0.06</v>
       </c>
       <c r="E10" s="5">
@@ -3020,7 +3020,7 @@
       <c r="C11" s="3">
         <v>0.18228800000000001</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <v>-1.22</v>
       </c>
       <c r="E11" s="5">
@@ -3055,7 +3055,7 @@
       <c r="C12" s="3">
         <v>18.966200000000001</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>0.01</v>
       </c>
       <c r="E12" s="5">
@@ -3087,8 +3087,8 @@
       <c r="B13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -3101,7 +3101,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -3114,8 +3114,8 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -3126,8 +3126,8 @@
       <c r="B16" s="3">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -3139,8 +3139,8 @@
       <c r="B17" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -3153,20 +3153,20 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="23" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="3">
         <v>-0.46139999999999998</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -3179,8 +3179,8 @@
         <v>0.75949480999999996</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
@@ -3281,19 +3281,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>16.85013</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>1.244326</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>13.59802</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>20.61806</v>
       </c>
     </row>
@@ -3671,20 +3671,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="H14" s="14" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="H14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3911,13 +3911,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
@@ -3995,13 +3995,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4135,7 +4135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAA9C2-5969-4AEB-824C-6554D5B3A06C}">
   <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -4207,7 +4207,7 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -4307,7 +4307,7 @@
       <c r="E8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="29" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -4351,7 +4351,7 @@
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -4382,7 +4382,7 @@
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="28" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -4415,7 +4415,7 @@
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -4427,10 +4427,10 @@
       <c r="E12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="28" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -4476,7 +4476,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">

--- a/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
+++ b/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C301179-91C9-443B-B27A-09AEAF5E3CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF8102-2188-4B49-9458-7B858E6BFDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Regressao Robust" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="167">
   <si>
     <t>Variable</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Estat. T</t>
+  </si>
+  <si>
+    <t>wsqCAPIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsCOMPLEX </t>
   </si>
 </sst>
 </file>
@@ -679,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,6 +764,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,16 +1167,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>218676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123487</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1190,7 +1199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="85725"/>
+          <a:off x="6162675" y="171450"/>
           <a:ext cx="3190476" cy="2704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1786,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D8B2B8-F1A2-4C2B-B6F9-25C48E0508A1}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1802,15 +1811,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -1829,10 +1838,10 @@
       <c r="E3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="26">
         <v>1E-3</v>
       </c>
@@ -2346,15 +2355,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -2373,10 +2382,10 @@
       <c r="E3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2724,15 +2733,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -2751,10 +2760,10 @@
       <c r="E3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="26">
         <v>1E-3</v>
       </c>
@@ -3671,20 +3680,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="H14" s="34" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="H14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3911,13 +3920,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
@@ -3995,13 +4004,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4464,18 +4473,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72ACB85-E398-49F4-B5F8-2BF9961BED64}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4511,7 +4522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -4544,7 +4555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -4555,7 +4566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -4577,7 +4588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -4588,7 +4599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -4596,6 +4607,193 @@
         <v>79</v>
       </c>
       <c r="C12" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.303951367781155</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="F16" s="7">
+        <f>1/E16</f>
+        <v>0.303951367781155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.38759689922480617</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17:F24" si="0">1/E17</f>
+        <v>0.38759689922480617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.42016806722689076</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.42016806722689076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.59171597633136097</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.59171597633136097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67114093959731547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.72992700729927007</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.72992700729927007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.74626865671641784</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.74626865671641784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.96153846153846145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.8511111111111112</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" s="3">
+        <f>SUM(E16:E24)/9</f>
+        <v>1.8511111111111112</v>
+      </c>
+      <c r="F25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
+++ b/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF8102-2188-4B49-9458-7B858E6BFDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33BF791-5FA7-41C9-B991-4A53A91950F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Regressao Robust" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="169">
   <si>
     <t>Variable</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>0.0000</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>0.0495</t>
@@ -356,15 +353,9 @@
     <t>Máximo</t>
   </si>
   <si>
-    <t>Pr(Kurtosis)</t>
-  </si>
-  <si>
     <t>chi2(2)</t>
   </si>
   <si>
-    <t>Pr(Skewness)</t>
-  </si>
-  <si>
     <t>Skewness/Kurtosis tests for Normality</t>
   </si>
   <si>
@@ -567,6 +558,21 @@
   </si>
   <si>
     <t xml:space="preserve">wsCOMPLEX </t>
+  </si>
+  <si>
+    <t>wsCOMPLEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0090 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1012.38</t>
+  </si>
+  <si>
+    <t>Assimetria</t>
+  </si>
+  <si>
+    <t>Curtose</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -773,6 +779,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,6 +798,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,16 +1084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>967</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123520</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1101,8 +1116,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419350" y="2828925"/>
-          <a:ext cx="6447619" cy="2438095"/>
+          <a:off x="0" y="2003425"/>
+          <a:ext cx="3994150" cy="1508443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC46EC18-3AC6-4959-9BA6-B179B3171719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4508501" y="333375"/>
+          <a:ext cx="5119687" cy="1904081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>277811</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3514408F-1D03-4150-A055-B8D72991F861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452938" y="2436812"/>
+          <a:ext cx="5135561" cy="2046384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,37 +1914,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="26">
         <v>1E-3</v>
       </c>
@@ -1854,7 +1957,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="14">
         <v>0.50235810000000003</v>
@@ -2032,7 +2135,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>1.0185299999999999</v>
@@ -2134,7 +2237,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3">
         <v>0.16653380000000001</v>
@@ -2169,10 +2272,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="16"/>
@@ -2182,10 +2285,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="22"/>
@@ -2195,7 +2298,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
         <v>4.6199999999999998E-2</v>
@@ -2208,7 +2311,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="3">
         <v>8.8700000000000001E-2</v>
@@ -2221,7 +2324,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3">
         <v>2.2000000000000001E-3</v>
@@ -2234,7 +2337,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3">
         <v>7.1999999999999998E-3</v>
@@ -2247,7 +2350,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3">
         <v>-0.46139999999999998</v>
@@ -2260,7 +2363,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" s="3">
         <v>0.75949480999999996</v>
@@ -2355,41 +2458,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
         <v>0.50235810000000003</v>
@@ -2507,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>1.0185299999999999</v>
@@ -2573,7 +2676,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3">
         <v>0.16653380000000001</v>
@@ -2596,10 +2699,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="16"/>
@@ -2609,10 +2712,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="22"/>
@@ -2622,7 +2725,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
         <v>4.6199999999999998E-2</v>
@@ -2636,7 +2739,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="3">
         <v>8.8700000000000001E-2</v>
@@ -2650,7 +2753,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3">
         <v>2.2000000000000001E-3</v>
@@ -2664,7 +2767,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3">
         <v>7.1999999999999998E-3</v>
@@ -2678,7 +2781,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3">
         <v>-0.46139999999999998</v>
@@ -2691,7 +2794,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" s="3">
         <v>0.75949480999999996</v>
@@ -2733,37 +2836,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="26">
         <v>1E-3</v>
       </c>
@@ -2776,7 +2879,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="14">
         <v>0.50235810000000003</v>
@@ -2954,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>1.0185299999999999</v>
@@ -3056,7 +3159,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3">
         <v>0.16653380000000001</v>
@@ -3091,10 +3194,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="16"/>
@@ -3104,10 +3207,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="22"/>
@@ -3117,7 +3220,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
         <v>4.6199999999999998E-2</v>
@@ -3130,7 +3233,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="3">
         <v>8.8700000000000001E-2</v>
@@ -3143,7 +3246,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3156,7 +3259,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3">
         <v>7.1999999999999998E-3</v>
@@ -3169,7 +3272,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3">
         <v>-0.46139999999999998</v>
@@ -3182,7 +3285,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" s="3">
         <v>0.75949480999999996</v>
@@ -3206,18 +3309,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E8D6F4-8F6A-4532-A1D5-65B7127728C7}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3226,21 +3329,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3">
         <v>28.75375</v>
@@ -3257,7 +3360,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
         <v>45.901200000000003</v>
@@ -3291,7 +3394,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="14">
         <v>16.85013</v>
@@ -3342,7 +3445,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5">
         <v>0.54374999999999996</v>
@@ -3414,6 +3517,91 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="39">
+        <v>16.82536</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1.0824830000000001</v>
+      </c>
+      <c r="D16" s="39">
+        <v>15.025880000000001</v>
+      </c>
+      <c r="E16" s="40">
+        <v>18.96866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="39">
+        <v>14.18125</v>
+      </c>
+      <c r="C17" s="39">
+        <v>10.604240000000001</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="39">
+        <v>4.1750160000000003</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1.13253</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2.2360679999999999</v>
+      </c>
+      <c r="E18" s="40">
+        <v>5.5677640000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="39">
+        <v>9.0559370000000001</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1.632161</v>
+      </c>
+      <c r="D19" s="39">
+        <v>5.8309519999999999</v>
+      </c>
+      <c r="E19" s="40">
+        <v>11.78983</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3680,20 +3868,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="H14" s="35" t="s">
+      <c r="A14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3706,7 +3894,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
@@ -3721,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>17</v>
@@ -3729,7 +3917,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3">
         <v>0.99007000000000001</v>
@@ -3744,7 +3932,7 @@
         <v>2.877E-2</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="3">
         <v>0.99007000000000001</v>
@@ -3761,7 +3949,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3">
         <v>0.99048000000000003</v>
@@ -3776,7 +3964,7 @@
         <v>3.5889999999999998E-2</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="3">
         <v>0.99536000000000002</v>
@@ -3808,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="3">
         <v>0.98707</v>
@@ -3904,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="3">
         <v>0.98946000000000001</v>
@@ -3920,13 +4108,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
+      <c r="H22" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
@@ -3989,10 +4177,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B470C-05EC-430E-8C1A-993AE424F2CE}">
-  <dimension ref="A3:E10"/>
+  <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,26 +4192,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>133</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
@@ -4031,7 +4219,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3">
         <v>0.1482</v>
@@ -4048,19 +4236,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3">
-        <v>0.90639999999999998</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.2969</v>
+        <v>0.79010000000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>1.1000000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="E6" s="3">
-        <v>0.57640000000000002</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4068,16 +4256,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>0.33929999999999999</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C7" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D7" s="3">
-        <v>13.93</v>
+        <v>349.94</v>
       </c>
       <c r="E7" s="3">
-        <v>8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4104,14 +4292,14 @@
       <c r="B9" s="3">
         <v>0.1404</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,6 +4316,125 @@
         <v>22.63</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.1482</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.1195</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13.93</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>23.88</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.1031</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>22.63</v>
+      </c>
+      <c r="E27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4186,10 +4493,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>10</v>
@@ -4200,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -4217,10 +4524,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -4236,13 +4543,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
@@ -4257,16 +4564,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
@@ -4280,19 +4587,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -4305,22 +4612,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -4332,25 +4639,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4361,28 +4668,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="11"/>
@@ -4392,31 +4699,31 @@
         <v>37</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K11" s="11"/>
     </row>
@@ -4425,34 +4732,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4475,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72ACB85-E398-49F4-B5F8-2BF9961BED64}">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4491,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,10 +4812,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4516,10 +4823,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4527,10 +4834,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,10 +4845,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4549,10 +4856,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4560,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4571,10 +4878,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,10 +4889,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4593,18 +4900,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -4613,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,7 +4946,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B17" s="3">
         <v>2.58</v>
@@ -4711,7 +5018,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" s="3">
         <v>1.49</v>
@@ -4783,7 +5090,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3">
         <v>1.8511111111111112</v>
@@ -4816,33 +5123,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4850,15 +5157,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4882,13 +5189,13 @@
   <sheetData>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4896,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
+++ b/scripts Stata/Atual/Resultados Finais do Modelo.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33BF791-5FA7-41C9-B991-4A53A91950F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23263AA6-CD99-48EB-ADCC-03734202D645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="9330" yWindow="735" windowWidth="18870" windowHeight="13005" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelo de Regressao Robust" sheetId="13" r:id="rId1"/>
-    <sheet name="Modelo de Regressao nor" sheetId="14" r:id="rId2"/>
-    <sheet name="t1" sheetId="1" r:id="rId3"/>
-    <sheet name="t2" sheetId="2" r:id="rId4"/>
-    <sheet name="t3" sheetId="3" r:id="rId5"/>
-    <sheet name="t4" sheetId="4" r:id="rId6"/>
-    <sheet name="t5" sheetId="5" r:id="rId7"/>
-    <sheet name="t6" sheetId="6" r:id="rId8"/>
-    <sheet name="t7" sheetId="7" r:id="rId9"/>
-    <sheet name="t8" sheetId="8" r:id="rId10"/>
-    <sheet name="t9" sheetId="9" r:id="rId11"/>
-    <sheet name="t10" sheetId="10" r:id="rId12"/>
-    <sheet name="t11" sheetId="11" r:id="rId13"/>
-    <sheet name="Modelo de Regressao" sheetId="12" r:id="rId14"/>
+    <sheet name="Modelo de Regressao nor" sheetId="14" r:id="rId1"/>
+    <sheet name="t1" sheetId="1" r:id="rId2"/>
+    <sheet name="t2" sheetId="2" r:id="rId3"/>
+    <sheet name="t3" sheetId="3" r:id="rId4"/>
+    <sheet name="t4" sheetId="4" r:id="rId5"/>
+    <sheet name="t5" sheetId="5" r:id="rId6"/>
+    <sheet name="t6" sheetId="6" r:id="rId7"/>
+    <sheet name="t7" sheetId="7" r:id="rId8"/>
+    <sheet name="t8" sheetId="8" r:id="rId9"/>
+    <sheet name="t9" sheetId="9" r:id="rId10"/>
+    <sheet name="t10" sheetId="10" r:id="rId11"/>
+    <sheet name="t11" sheetId="11" r:id="rId12"/>
+    <sheet name="Modelo de Regressao" sheetId="12" r:id="rId13"/>
+    <sheet name="Modelo de Regres_por_setores" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="190">
   <si>
     <t>Variable</t>
   </si>
@@ -574,13 +574,77 @@
   <si>
     <t>Curtose</t>
   </si>
+  <si>
+    <t>Robust</t>
+  </si>
+  <si>
+    <t>Coef.</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>Reg_Nreg</t>
+  </si>
+  <si>
+    <t>idsetor1</t>
+  </si>
+  <si>
+    <t>idsetor2</t>
+  </si>
+  <si>
+    <t>idsetor3</t>
+  </si>
+  <si>
+    <t>idsetor4</t>
+  </si>
+  <si>
+    <t>idsetor5</t>
+  </si>
+  <si>
+    <t>(omitted)</t>
+  </si>
+  <si>
+    <t>idsetor6</t>
+  </si>
+  <si>
+    <t>idsetor7</t>
+  </si>
+  <si>
+    <t>idsetor8</t>
+  </si>
+  <si>
+    <t>idsetor9</t>
+  </si>
+  <si>
+    <t>LegCPC</t>
+  </si>
+  <si>
+    <t>LegNE</t>
+  </si>
+  <si>
+    <t>-0,28</t>
+  </si>
+  <si>
+    <t>Modelo de Regressão por setores - aleatório Robust</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -691,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -784,6 +848,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -798,12 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,184 +903,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2839624" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA651772-A455-4E94-8C34-771657769617}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5403850" y="2686050"/>
-          <a:ext cx="2839624" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Quando</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> roda o modelo com robust os valores </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t>não se mostraram significativos. Nessa caso, </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t>vamos rodar sem o método robust.</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>341943</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>8786</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653B4F00-18EB-4758-9429-7A15ECED166A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7657143" cy="5914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>284800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>75476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5F9BFB-1F94-44A9-98B0-695C1F21C424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7600000" cy="5790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1080,7 +982,56 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>284800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5F9BFB-1F94-44A9-98B0-695C1F21C424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7600000" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1217,7 +1168,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1266,7 +1217,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1315,7 +1266,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1452,7 +1403,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1501,7 +1452,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1550,7 +1501,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1588,6 +1539,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="11257143" cy="6600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653B4F00-18EB-4758-9429-7A15ECED166A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7657143" cy="5914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1895,11 +1895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D8B2B8-F1A2-4C2B-B6F9-25C48E0508A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396510AC-0733-4B67-AC27-06EAEE37A3B2}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,15 +1914,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -1932,19 +1932,19 @@
       <c r="B3" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="27" t="s">
         <v>154</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="26">
         <v>1E-3</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>1.71</v>
       </c>
       <c r="E4" s="5">
-        <v>9.5000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F4" s="3">
         <v>-9.2173599999999994E-2</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I4" t="b">
         <f>E4&lt;$I$3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <f>E4&lt;$J$3</f>
@@ -2004,7 +2004,7 @@
         <v>-0.84</v>
       </c>
       <c r="E5" s="5">
-        <v>0.40500000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F5" s="3">
         <v>-0.86648139999999996</v>
@@ -2039,7 +2039,7 @@
         <v>0.33</v>
       </c>
       <c r="E6" s="5">
-        <v>0.746</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>-1.61483</v>
@@ -2074,7 +2074,7 @@
         <v>0.51</v>
       </c>
       <c r="E7" s="5">
-        <v>0.61399999999999999</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="F7" s="3">
         <v>-0.51818299999999995</v>
@@ -2108,8 +2108,8 @@
       <c r="D8" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.25900000000000001</v>
+      <c r="E8" s="3">
+        <v>0.1</v>
       </c>
       <c r="F8" s="3">
         <v>-0.1044757</v>
@@ -2144,7 +2144,7 @@
         <v>-1.22</v>
       </c>
       <c r="E9" s="5">
-        <v>0.23</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F9" s="3">
         <v>-3.3021229999999999</v>
@@ -2179,7 +2179,7 @@
         <v>-0.06</v>
       </c>
       <c r="E10" s="5">
-        <v>0.95099999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F10" s="3">
         <v>-1.252737</v>
@@ -2214,7 +2214,7 @@
         <v>-1.22</v>
       </c>
       <c r="E11" s="5">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F11" s="3">
         <v>-0.59110830000000003</v>
@@ -2386,19 +2386,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1935DF16-2A28-482D-8AAC-9988DD6BBFFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0174F6-E2FC-463D-8CF6-DD8960E2CB47}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2411,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3A037-A1AB-4B7C-913D-B61FB092479A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2424,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5EFBD4-5B0B-4519-9C07-EC80BE795915}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2439,12 +2426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B927E1B9-CB6D-4CFE-846E-453372E2D8A1}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B20"/>
+      <selection activeCell="G19" sqref="G19:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,15 +2445,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -2485,10 +2472,10 @@
       <c r="E3" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2751,7 +2738,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>149</v>
       </c>
@@ -2765,7 +2752,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>148</v>
       </c>
@@ -2779,7 +2766,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>151</v>
       </c>
@@ -2790,9 +2777,15 @@
       <c r="D19" s="16"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="33"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>147</v>
       </c>
@@ -2803,13 +2796,542 @@
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="L19:M19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE817D-581E-4400-8FD4-C1B57006F647}">
+  <dimension ref="A2:H24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="A2:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.46880739999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.25742189999999998</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1.82</v>
+      </c>
+      <c r="E7" s="36">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F7" s="38">
+        <v>-3.5730400000000002E-2</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.97334509999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-9.6810199999999999E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.78114139999999999</v>
+      </c>
+      <c r="D8" s="37">
+        <v>-0.12</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F8" s="38">
+        <v>-1.6278189999999999</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1.434199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.1605019999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.53581619999999996</v>
+      </c>
+      <c r="D9" s="37">
+        <v>2.17</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.1103219</v>
+      </c>
+      <c r="G9" s="38">
+        <v>2.210683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.3568200000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.1012899999999998E-2</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F10" s="38">
+        <v>-5.6815499999999998E-2</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.1039519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.32422499999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.27547129999999997</v>
+      </c>
+      <c r="D11" s="37">
+        <v>-1.18</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F11" s="38">
+        <v>-0.86413879999999998</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.21568880000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-0.5222772</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.8405400000000001</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F12" s="38">
+        <v>-4.12967</v>
+      </c>
+      <c r="G12" s="38">
+        <v>3.0851160000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-2.5083069999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.4361900000000001</v>
+      </c>
+      <c r="D13" s="37">
+        <v>-1.75</v>
+      </c>
+      <c r="E13" s="36">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F13" s="38">
+        <v>-5.323188</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0.30657380000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-0.2009408</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1760767</v>
+      </c>
+      <c r="D14" s="37">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.254</v>
+      </c>
+      <c r="F14" s="38">
+        <v>-0.54604470000000005</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0.14416319999999999</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1.426318</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.6395329999999999</v>
+      </c>
+      <c r="D15" s="37">
+        <v>-0.87</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F15" s="38">
+        <v>-4.6397449999999996</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1.7871079999999999</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.2786789999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.63584</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.434</v>
+      </c>
+      <c r="F16" s="38">
+        <v>-1.9275070000000001</v>
+      </c>
+      <c r="G16" s="38">
+        <v>4.4848660000000002</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.434016</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.3276669999999999</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1.08</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="38">
+        <v>-1.1681649999999999</v>
+      </c>
+      <c r="G17" s="38">
+        <v>4.0361960000000003</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.1160934</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.1811660000000002</v>
+      </c>
+      <c r="D18" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F18" s="38">
+        <v>-4.3911009999999999</v>
+      </c>
+      <c r="G18" s="38">
+        <v>4.1589140000000002</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.5564659999999999</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.724796</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F20" s="38">
+        <v>-3.784036</v>
+      </c>
+      <c r="G20" s="38">
+        <v>6.8969670000000001</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.54431450000000003</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3.3777430000000002</v>
+      </c>
+      <c r="D21" s="37">
+        <v>-0.16</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.872</v>
+      </c>
+      <c r="F21" s="38">
+        <v>-7.1645690000000002</v>
+      </c>
+      <c r="G21" s="38">
+        <v>6.0759400000000001</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-0.43996990000000002</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.676682</v>
+      </c>
+      <c r="D22" s="37">
+        <v>-0.16</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F22" s="38">
+        <v>-5.6861709999999999</v>
+      </c>
+      <c r="G22" s="38">
+        <v>4.8062310000000004</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6.5155839999999996</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13.982559999999999</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F24" s="38">
+        <v>-20.88973</v>
+      </c>
+      <c r="G24" s="38">
+        <v>33.92</v>
+      </c>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2817,501 +3339,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396510AC-0733-4B67-AC27-06EAEE37A3B2}">
-  <dimension ref="A2:J20"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="26">
-        <v>1E-3</v>
-      </c>
-      <c r="I3" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.50235810000000003</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.293931</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-9.2173599999999994E-2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0968899999999999</v>
-      </c>
-      <c r="H4" t="b">
-        <f>E4&lt;$H$3</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>E4&lt;$I$3</f>
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <f>E4&lt;$J$3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-0.2545925</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.30251230000000001</v>
-      </c>
-      <c r="D5" s="22">
-        <v>-0.84</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.86648139999999996</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.35729630000000001</v>
-      </c>
-      <c r="H5" t="b">
-        <f t="shared" ref="H5:H12" si="0">E5&lt;$H$3</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <f t="shared" ref="I5:I12" si="1">E5&lt;$I$3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <f t="shared" ref="J5:J12" si="2">E5&lt;$J$3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.30977080000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.95150500000000005</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-1.61483</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.2343709999999999</v>
-      </c>
-      <c r="H6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1737882</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.34210429999999997</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.51</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.51818299999999995</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.86575950000000002</v>
-      </c>
-      <c r="H7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.13625999999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.1190176</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-0.1044757</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.37699579999999999</v>
-      </c>
-      <c r="H8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0185299999999999</v>
-      </c>
-      <c r="D9" s="22">
-        <v>-1.22</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-3.3021229999999999</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.81822159999999999</v>
-      </c>
-      <c r="H9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-3.7510700000000001E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.60079680000000002</v>
-      </c>
-      <c r="D10" s="22">
-        <v>-0.06</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-1.252737</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.177716</v>
-      </c>
-      <c r="H10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-0.22239600000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.18228800000000001</v>
-      </c>
-      <c r="D11" s="22">
-        <v>-1.22</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-0.59110830000000003</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.14631630000000001</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.16653380000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18.966200000000001</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-38.196219999999997</v>
-      </c>
-      <c r="G12" s="3">
-        <v>38.529290000000003</v>
-      </c>
-      <c r="H12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="3">
-        <v>8.8700000000000001E-2</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="3">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-0.46139999999999998</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.75949480999999996</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E8D6F4-8F6A-4532-A1D5-65B7127728C7}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:E19"/>
     </sheetView>
   </sheetViews>
@@ -3539,16 +3570,16 @@
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>16.82536</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="34">
         <v>1.0824830000000001</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="34">
         <v>15.025880000000001</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="35">
         <v>18.96866</v>
       </c>
     </row>
@@ -3556,16 +3587,16 @@
       <c r="A17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>14.18125</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <v>10.604240000000001</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="34">
         <v>1</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="35">
         <v>36</v>
       </c>
     </row>
@@ -3573,16 +3604,16 @@
       <c r="A18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <v>4.1750160000000003</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="34">
         <v>1.13253</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="34">
         <v>2.2360679999999999</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="35">
         <v>5.5677640000000004</v>
       </c>
     </row>
@@ -3590,16 +3621,16 @@
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <v>9.0559370000000001</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="34">
         <v>1.632161</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="34">
         <v>5.8309519999999999</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="35">
         <v>11.78983</v>
       </c>
     </row>
@@ -3609,7 +3640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5354CA-DDAA-4047-8E79-CE8CBF459EF2}">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -3868,20 +3899,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="H14" s="36" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="H14" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -4108,13 +4139,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
@@ -4175,11 +4206,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B470C-05EC-430E-8C1A-993AE424F2CE}">
   <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4192,13 +4223,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4447,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAA9C2-5969-4AEB-824C-6554D5B3A06C}">
   <dimension ref="A2:K15"/>
   <sheetViews>
@@ -4778,7 +4809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72ACB85-E398-49F4-B5F8-2BF9961BED64}">
   <dimension ref="A2:F25"/>
   <sheetViews>
@@ -5108,7 +5139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6FCEC-3DFF-4358-9C19-0E1B9292DEE2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5174,7 +5205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60756F8D-C6C1-4478-AE9D-E4AD2607C302}">
   <dimension ref="A18:C19"/>
   <sheetViews>
@@ -5213,4 +5244,17 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1935DF16-2A28-482D-8AAC-9988DD6BBFFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>